--- a/Test Data/TC_63812_Verify_IB_Units_On_Assigning_Base_And_Additional_Base.xlsx
+++ b/Test Data/TC_63812_Verify_IB_Units_On_Assigning_Base_And_Additional_Base.xlsx
@@ -150,9 +150,6 @@
     <t>Isolator Units</t>
   </si>
   <si>
-    <t>TC-134</t>
-  </si>
-  <si>
     <t>VerifyIBUnits,VerifyIsolatorUnits</t>
   </si>
   <si>
@@ -214,6 +211,9 @@
   </si>
   <si>
     <t>FIM</t>
+  </si>
+  <si>
+    <t>TC-63812</t>
   </si>
 </sst>
 </file>
@@ -657,7 +657,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -685,7 +685,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>6</v>
@@ -698,7 +698,7 @@
         <v>11</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="10" t="s">
@@ -711,7 +711,7 @@
         <v>13</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="10" t="s">
@@ -727,7 +727,7 @@
         <v>15</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -762,25 +762,25 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>3</v>
       </c>
       <c r="E8" s="7">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G8" s="7">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="H8" s="3">
         <v>1</v>
@@ -788,25 +788,25 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>3</v>
       </c>
       <c r="E9" s="7">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G9" s="7">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="H9" s="3">
         <v>2</v>
@@ -814,25 +814,25 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E10" s="7">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G10" s="7">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="H10" s="3">
         <v>5.5</v>
@@ -840,19 +840,19 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E11" s="7">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>3</v>
@@ -866,19 +866,19 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>3</v>
       </c>
       <c r="E12" s="7">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>3</v>
@@ -892,19 +892,19 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>3</v>
       </c>
       <c r="E13" s="7">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>3</v>
@@ -918,19 +918,19 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>3</v>
       </c>
       <c r="E14" s="7">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>3</v>

--- a/Test Data/TC_63812_Verify_IB_Units_On_Assigning_Base_And_Additional_Base.xlsx
+++ b/Test Data/TC_63812_Verify_IB_Units_On_Assigning_Base_And_Additional_Base.xlsx
@@ -30,8 +30,138 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Alpesh Dhakad</author>
+  </authors>
+  <commentList>
+    <comment ref="F8" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Alpesh Dhakad:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+4B-EM 4" [517.050.052]</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F9" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Alpesh Dhakad:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+4B-EM 4" [517.050.052]</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Alpesh Dhakad:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+440DSB [576.440.001] @ 60dB</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Alpesh Dhakad:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+A-CON [557.080.002]</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D11" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Alpesh Dhakad:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+430SB [516.800.710] @ 68dB</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="59">
   <si>
     <t>Device</t>
   </si>
@@ -201,26 +331,20 @@
     <t>410MIM - 7</t>
   </si>
   <si>
-    <t>440DSB [576.440.001] @ 60dB</t>
-  </si>
-  <si>
-    <t>430SB [516.800.710] @ 68dB</t>
-  </si>
-  <si>
-    <t>4B-EM 4" [517.050.052]</t>
-  </si>
-  <si>
     <t>FIM</t>
   </si>
   <si>
     <t>TC-63812</t>
+  </si>
+  <si>
+    <t>IBUnitsLoadingDetail</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -242,6 +366,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="6">
@@ -653,11 +790,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -670,9 +807,10 @@
     <col min="6" max="6" width="22.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>7</v>
       </c>
@@ -680,7 +818,7 @@
       <c r="C1" s="15"/>
       <c r="D1" s="16"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>10</v>
       </c>
@@ -693,7 +831,7 @@
       <c r="D2" s="12"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>11</v>
       </c>
@@ -706,12 +844,12 @@
       </c>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="10" t="s">
@@ -721,20 +859,20 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C5" s="3"/>
       <c r="D5" s="10" t="s">
         <v>15</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>0</v>
       </c>
@@ -759,8 +897,11 @@
       <c r="H7" s="5" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I7" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>41</v>
       </c>
@@ -776,8 +917,8 @@
       <c r="E8" s="7">
         <v>6</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>58</v>
+      <c r="F8" s="7">
+        <v>2</v>
       </c>
       <c r="G8" s="7">
         <v>6</v>
@@ -785,8 +926,11 @@
       <c r="H8" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I8" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>42</v>
       </c>
@@ -802,8 +946,8 @@
       <c r="E9" s="7">
         <v>6</v>
       </c>
-      <c r="F9" s="7" t="s">
-        <v>58</v>
+      <c r="F9" s="7">
+        <v>2</v>
       </c>
       <c r="G9" s="7">
         <v>6</v>
@@ -811,8 +955,11 @@
       <c r="H9" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I9" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>43</v>
       </c>
@@ -822,14 +969,14 @@
       <c r="C10" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>56</v>
+      <c r="D10" s="7">
+        <v>28</v>
       </c>
       <c r="E10" s="7">
         <v>6</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>31</v>
+      <c r="F10" s="7">
+        <v>1</v>
       </c>
       <c r="G10" s="7">
         <v>6</v>
@@ -837,8 +984,11 @@
       <c r="H10" s="3">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I10" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>44</v>
       </c>
@@ -848,8 +998,8 @@
       <c r="C11" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>57</v>
+      <c r="D11" s="7">
+        <v>16</v>
       </c>
       <c r="E11" s="7">
         <v>6</v>
@@ -863,8 +1013,11 @@
       <c r="H11" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I11" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>45</v>
       </c>
@@ -889,8 +1042,11 @@
       <c r="H12" s="3">
         <v>14</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I12" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>46</v>
       </c>
@@ -915,8 +1071,11 @@
       <c r="H13" s="3">
         <v>15.5</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I13" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>47</v>
       </c>
@@ -940,6 +1099,9 @@
       </c>
       <c r="H14" s="3">
         <v>17</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -948,6 +1110,7 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
